--- a/hw2-review.xlsx
+++ b/hw2-review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2022_Fall/CS440/assessments/hw2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2023_Fall/CS440/assessments/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F39207C-0946-7A48-8B68-9F6A6D6C8ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92D8C7-07F0-9C4B-B2E6-027EE5DEB8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{4FF1DD6F-891C-E44E-A97A-442D6358AFA5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{4FF1DD6F-891C-E44E-A97A-442D6358AFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Correctness</t>
   </si>
@@ -62,74 +64,114 @@
     <t>Score Key</t>
   </si>
   <si>
-    <t>Meets less than 75% of the expectation. Contains too many or serious errors</t>
-  </si>
-  <si>
-    <t>Meets 75% or more of the expectaion. Contains very minor or no errors.</t>
-  </si>
-  <si>
-    <t>Perfectionist, meets 100% of the expectation and then some. The work is above and beyond what was expected.</t>
-  </si>
-  <si>
-    <t>The code is pleasant to look at. There is a consistent style regarding variable naming, whitespace, and documentation. Whitespace is used to divide the code into logical blocks which are appropriately commented. Variables are named to indicate their usage. Global variables are used only when necessary. Lines are not longer than 80 characters.</t>
-  </si>
-  <si>
     <t>To WS: I awarded this score  because …</t>
   </si>
   <si>
-    <t>1. Color Interpolation</t>
-  </si>
-  <si>
-    <t>2. The Mandelbrot Set</t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. The colorbars interpolate correctly between the specified colors. These colors can be altered through interactive contols on the page. The colorbars react correctly to the changes.</t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. The set is visualized correctly and renders in a reasonable time. n_t can be set interactively and the visualization updates accordingly and correctly.</t>
-  </si>
-  <si>
-    <t>3. Boundary and Interior</t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. Interactive controls for all the 6 requirements in the question are provided. The render updates accordingly and correctly.</t>
-  </si>
-  <si>
-    <t>4. Subdivision</t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. The diamond renders correctly and efficiently with regard to the recursion level as specified by an interactive control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-5. Koch Snowflake</t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. The snowflake renders correctly and efficiently with regard to the recursion level as specified by an interactive control</t>
-  </si>
-  <si>
-    <t>6. Sierpinski Triangle</t>
-  </si>
-  <si>
-    <t>7. Mandelbrot on Shaders</t>
-  </si>
-  <si>
-    <t>8. Polygons Galore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The requirements of the earlier Mandelbrot question are met. Minimum data is sent from the CPU to the GPU. Color computation occurs entirely in the fragment shader. </t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. Polygons are drawn correctly as per the current drawing mode. Vertex locations are registered correctly. Polygonfs appear in different colors. Clearing is correctly implemented. Toggle is correctly implemented. The program does not slow down the longer it runs.</t>
-  </si>
-  <si>
-    <t>9. Tetrix</t>
-  </si>
-  <si>
-    <t>Files are named correctly. Geometric types from MV.js and map_point are used where appropriate. The tetrix renders correctly. It animates correctly. All the defined ineraction is correctly implemented. Interactive controls take effect immediately.</t>
-  </si>
-  <si>
-    <t>Total (150)</t>
+    <t>Meets ALL of the following.
+- The files run as submitted to produce some meaningful render.
+- Separate shader files are used
+- 75% or more of the expectaion.
+- The files contain very minor or no errors.</t>
+  </si>
+  <si>
+    <t>Perfectionist, meets ALL of the above reuiqrements and then some. The work is above and beyond what was expected.</t>
+  </si>
+  <si>
+    <t>Fails ANY ONE of the following.
+- The files run as submitted to produce some meaningful render.
+- Separate shader files are used
+- 75% or more of the expectaion.
+- The files contain very minor or no errors.</t>
+  </si>
+  <si>
+    <t>The code is pleasant to look at. There is a consistent style regarding variable naming, whitespace, and documentation. Whitespace is used to divide the code into logical blocks which are appropriately commented. Variables are named to indicate their usage. Global variables are used only when necessary. Lines are not longer than 80 characters. Nesting is not too deep.</t>
+  </si>
+  <si>
+    <t>The JS file computes the lines and sends them to the GPU correctly. It uses geometric types from MV.js and uses map_point to compute vertices and colors. The rendered colorbar has a smooth gradient.</t>
+  </si>
+  <si>
+    <t>The JS file corretly sends 4 vertices and the canvas width (as a uniform) to the GPU. Color computation takes place in the fragmetn shader. The rendered colorbar has a smooth gradient.</t>
+  </si>
+  <si>
+    <t>The JS file corretly sends 4 vertices and their colors to the GPU. No particular computation takes placein the shaders. The rendered colorbar has a smooth gradient.</t>
+  </si>
+  <si>
+    <t>2a. Color Interpolation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b. Color Interpolation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c. Color Interpolation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d. Color Interpolation </t>
+  </si>
+  <si>
+    <t>3a. The Mandelbrot Set</t>
+  </si>
+  <si>
+    <t>The fragment shaer file contains and uses relevant functions to operate on complex numbers, It also contains and uses a version of map_point. It receives the canvas dimensions as uniform. The render is correct and with a sufficiently distinguisgung color scheme.</t>
+  </si>
+  <si>
+    <t>3b. The Mandelbrot Set</t>
+  </si>
+  <si>
+    <t>The page contains a mechanism to interactively vary n_t and the render reacts correctly and swiftly.</t>
+  </si>
+  <si>
+    <t>4. Boundary and Interior</t>
+  </si>
+  <si>
+    <t>Interactive controls for all the 6 requirements in the question are provided. The render reacts correctly and swiftly.</t>
+  </si>
+  <si>
+    <t>5a. Subdivision</t>
+  </si>
+  <si>
+    <t>5b. Subdivision</t>
+  </si>
+  <si>
+    <t>6a. Koch Snowflake</t>
+  </si>
+  <si>
+    <t>6b. Koch Snowflake</t>
+  </si>
+  <si>
+    <t>The diamond occupies the entiety of the canvas.</t>
+  </si>
+  <si>
+    <t>Geometric types from MV.js and map_point are used where appropriate. The subdivision level can be controlled Interactively. The render reacts correctly and swiftly.</t>
+  </si>
+  <si>
+    <t>The triangle occupies the entiety of the canvas.</t>
+  </si>
+  <si>
+    <t>7a. Sierpinski Triangle</t>
+  </si>
+  <si>
+    <t>7b. Sierpinski Triangle</t>
+  </si>
+  <si>
+    <t>8a. Polygons Galore</t>
+  </si>
+  <si>
+    <t>Triangles are drawn correctly as per the mouse click locations.</t>
+  </si>
+  <si>
+    <t>8b. Polygons Galore</t>
+  </si>
+  <si>
+    <t>8c. Polygons Galore</t>
+  </si>
+  <si>
+    <t>The reset occurs correctly as defined..</t>
+  </si>
+  <si>
+    <t>The toggle occurs correctly as defined..</t>
+  </si>
+  <si>
+    <t>Total (130)</t>
   </si>
 </sst>
 </file>
@@ -550,23 +592,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F253256C-EAA5-8140-8547-A5D80044F8AB}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="5" max="7" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -578,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -600,360 +636,290 @@
       <c r="G2" s="6"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="113" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="71" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="71" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="99" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="71" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="99" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="71" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="71" x14ac:dyDescent="0.2">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="43" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="71" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="71" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="71" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="141" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="141" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="99" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="141" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9">
-        <f>SUMPRODUCT(C3:C13,D3:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="43" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>1.05</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUMPRODUCT(C3:C20,D3:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D3:D11" xr:uid="{0774FE1A-7FF5-6948-8815-6B669518C2C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D18 D20" xr:uid="{0774FE1A-7FF5-6948-8815-6B669518C2C1}">
       <formula1>"0,1,1.05"</formula1>
     </dataValidation>
   </dataValidations>

--- a/hw2-review.xlsx
+++ b/hw2-review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsaleem/Documents/HU/Courses/2023_Fall/CS440/assessments/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92D8C7-07F0-9C4B-B2E6-027EE5DEB8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F7F37-386E-9F45-B5DF-B15721AFB0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{4FF1DD6F-891C-E44E-A97A-442D6358AFA5}"/>
   </bookViews>
